--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori2/67/word_level_predictions_67.xlsx
@@ -9966,366 +9966,366 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F184" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C187" s="2" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G187" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I187" t="b">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K187" t="b">
-        <v>1</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C188" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G188" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K188" t="b">
-        <v>1</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C190" s="2" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E190" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G190" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I190" t="b">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K190" t="b">
-        <v>1</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -13034,418 +13034,418 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
+      <c r="A243" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B243" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C243" s="2" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D243" t="n">
-        <v>0</v>
-      </c>
-      <c r="E243" t="inlineStr">
+      <c r="D243" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
+      <c r="F243" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G243" t="b">
-        <v>1</v>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I243" t="b">
-        <v>1</v>
-      </c>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K243" t="b">
-        <v>1</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="G243" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H243" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I243" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J243" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K243" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L243" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
+      <c r="A244" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C244" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D244" t="n">
-        <v>1</v>
-      </c>
-      <c r="E244" t="inlineStr">
+      <c r="D244" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
+      <c r="F244" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G244" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I244" t="b">
-        <v>1</v>
-      </c>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K244" t="b">
-        <v>1</v>
-      </c>
-      <c r="L244" t="inlineStr">
+      <c r="G244" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J244" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L244" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
+      <c r="A245" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B245" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C245" s="2" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D245" t="n">
+      <c r="D245" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="E245" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
+      <c r="F245" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G245" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I245" t="b">
-        <v>1</v>
-      </c>
-      <c r="J245" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K245" t="b">
-        <v>1</v>
-      </c>
-      <c r="L245" t="inlineStr">
+      <c r="G245" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H245" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I245" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J245" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K245" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L245" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
+      <c r="A246" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C246" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D246" t="n">
+      <c r="D246" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E246" t="inlineStr">
+      <c r="E246" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
+      <c r="F246" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I246" t="b">
-        <v>1</v>
-      </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K246" t="b">
-        <v>1</v>
-      </c>
-      <c r="L246" t="inlineStr">
+      <c r="G246" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J246" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L246" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
+      <c r="A247" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C247" s="2" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D247" t="n">
+      <c r="D247" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E247" t="inlineStr">
+      <c r="E247" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
+      <c r="F247" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G247" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J247" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L247" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B248" s="2" t="inlineStr">
+        <is>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+        </is>
+      </c>
+      <c r="C248" s="2" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" t="b">
-        <v>1</v>
-      </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K247" t="b">
-        <v>1</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="D248" t="n">
-        <v>5</v>
-      </c>
-      <c r="E248" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t>landing</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E249" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="F249" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>landing</t>
-        </is>
-      </c>
-      <c r="D249" t="n">
-        <v>6</v>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>19</v>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E250" t="inlineStr">
+      <c r="E250" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -16882,158 +16882,158 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="n">
+      <c r="A317" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B317" t="inlineStr">
+      <c r="B317" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr">
+      <c r="C317" s="2" t="inlineStr">
         <is>
           <t>Incompatible</t>
         </is>
       </c>
-      <c r="D317" t="n">
-        <v>0</v>
-      </c>
-      <c r="E317" t="inlineStr">
+      <c r="D317" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E317" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F317" t="inlineStr">
+      <c r="F317" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G317" t="b">
-        <v>1</v>
-      </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I317" t="b">
-        <v>1</v>
-      </c>
-      <c r="J317" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K317" t="b">
-        <v>1</v>
-      </c>
-      <c r="L317" t="inlineStr">
+      <c r="G317" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H317" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I317" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J317" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K317" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L317" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="n">
+      <c r="A318" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B318" t="inlineStr">
+      <c r="B318" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr">
+      <c r="C318" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D318" t="n">
-        <v>1</v>
-      </c>
-      <c r="E318" t="inlineStr">
+      <c r="D318" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E318" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G318" t="b">
-        <v>1</v>
-      </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I318" t="b">
-        <v>1</v>
-      </c>
-      <c r="J318" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K318" t="b">
-        <v>1</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F318" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G318" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H318" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I318" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J318" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K318" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L318" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="n">
+      <c r="A319" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B319" t="inlineStr">
+      <c r="B319" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr">
+      <c r="C319" s="2" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="D319" t="n">
+      <c r="D319" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E319" t="inlineStr">
+      <c r="E319" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G319" t="b">
-        <v>1</v>
-      </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I319" t="b">
-        <v>1</v>
-      </c>
-      <c r="J319" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K319" t="b">
-        <v>1</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F319" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G319" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H319" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I319" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J319" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K319" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L319" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="F331" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G331" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="L331" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -25017,81 +25017,81 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G473" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I473" t="b">
+        <v>1</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K473" t="b">
+        <v>1</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>39</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Strong Interference Now . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>2</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G473" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I473" t="b">
-        <v>1</v>
-      </c>
-      <c r="J473" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K473" t="b">
-        <v>1</v>
-      </c>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B474" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C474" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D474" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E474" s="2" t="inlineStr">
+      <c r="F474" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F474" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G474" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J474" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L474" s="2" t="inlineStr">
+      <c r="G474" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I474" t="b">
+        <v>1</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K474" t="b">
+        <v>1</v>
+      </c>
+      <c r="L474" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25485,7 +25485,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G482" t="b">
@@ -25509,7 +25509,7 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>False_I-Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori2/67/word_level_predictions_67.xlsx
@@ -9966,366 +9966,366 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>15</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>5</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F184" s="2" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>15</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>6</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>15</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>7</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" t="n">
         <v>15</v>
       </c>
-      <c r="B187" s="2" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C187" s="2" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D187" s="2" t="n">
+      <c r="D187" t="n">
         <v>8</v>
       </c>
-      <c r="E187" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F187" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G187" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L187" s="2" t="inlineStr">
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I187" t="b">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K187" t="b">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" t="n">
         <v>15</v>
       </c>
-      <c r="B188" s="2" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D188" s="2" t="n">
+      <c r="D188" t="n">
         <v>9</v>
       </c>
-      <c r="E188" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F188" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G188" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L188" s="2" t="inlineStr">
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" t="n">
         <v>15</v>
       </c>
-      <c r="B189" s="2" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C189" s="2" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D189" s="2" t="n">
+      <c r="D189" t="n">
         <v>10</v>
       </c>
-      <c r="E189" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F189" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" t="n">
         <v>15</v>
       </c>
-      <c r="B190" s="2" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D190" s="2" t="n">
+      <c r="D190" t="n">
         <v>11</v>
       </c>
-      <c r="E190" s="2" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F190" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G190" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L190" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K190" t="b">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13034,418 +13034,418 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="n">
+      <c r="A243" t="n">
         <v>19</v>
       </c>
-      <c r="B243" s="2" t="inlineStr">
+      <c r="B243" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C243" s="2" t="inlineStr">
+      <c r="C243" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D243" s="2" t="n">
+      <c r="D243" t="n">
         <v>0</v>
       </c>
-      <c r="E243" s="2" t="inlineStr">
+      <c r="E243" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F243" s="2" t="inlineStr">
+      <c r="F243" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G243" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H243" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I243" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K243" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L243" s="2" t="inlineStr">
+      <c r="G243" t="b">
+        <v>1</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I243" t="b">
+        <v>1</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K243" t="b">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="n">
+      <c r="A244" t="n">
         <v>19</v>
       </c>
-      <c r="B244" s="2" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C244" s="2" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D244" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E244" s="2" t="inlineStr">
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F244" s="2" t="inlineStr">
+      <c r="F244" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G244" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L244" s="2" t="inlineStr">
+      <c r="G244" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I244" t="b">
+        <v>1</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K244" t="b">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="n">
+      <c r="A245" t="n">
         <v>19</v>
       </c>
-      <c r="B245" s="2" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C245" s="2" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D245" s="2" t="n">
+      <c r="D245" t="n">
         <v>2</v>
       </c>
-      <c r="E245" s="2" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F245" s="2" t="inlineStr">
+      <c r="F245" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G245" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L245" s="2" t="inlineStr">
+      <c r="G245" t="b">
+        <v>1</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I245" t="b">
+        <v>1</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K245" t="b">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
+      <c r="A246" t="n">
         <v>19</v>
       </c>
-      <c r="B246" s="2" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C246" s="2" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D246" s="2" t="n">
+      <c r="D246" t="n">
         <v>3</v>
       </c>
-      <c r="E246" s="2" t="inlineStr">
+      <c r="E246" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F246" s="2" t="inlineStr">
+      <c r="F246" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G246" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L246" s="2" t="inlineStr">
+      <c r="G246" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I246" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K246" t="b">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
+      <c r="A247" t="n">
         <v>19</v>
       </c>
-      <c r="B247" s="2" t="inlineStr">
+      <c r="B247" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C247" s="2" t="inlineStr">
+      <c r="C247" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D247" s="2" t="n">
+      <c r="D247" t="n">
         <v>4</v>
       </c>
-      <c r="E247" s="2" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F247" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G247" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L247" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G247" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I247" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K247" t="b">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>19</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>up</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>5</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>19</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>landing</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>6</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F249" s="2" t="inlineStr">
+      <c r="F249" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>19</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>7</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
+      <c r="E250" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16882,158 +16882,158 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="2" t="n">
+      <c r="A317" t="n">
         <v>26</v>
       </c>
-      <c r="B317" s="2" t="inlineStr">
+      <c r="B317" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C317" s="2" t="inlineStr">
+      <c r="C317" t="inlineStr">
         <is>
           <t>Incompatible</t>
         </is>
       </c>
-      <c r="D317" s="2" t="n">
+      <c r="D317" t="n">
         <v>0</v>
       </c>
-      <c r="E317" s="2" t="inlineStr">
+      <c r="E317" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F317" s="2" t="inlineStr">
+      <c r="F317" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G317" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H317" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I317" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J317" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K317" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L317" s="2" t="inlineStr">
+      <c r="G317" t="b">
+        <v>1</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I317" t="b">
+        <v>1</v>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K317" t="b">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="2" t="n">
+      <c r="A318" t="n">
         <v>26</v>
       </c>
-      <c r="B318" s="2" t="inlineStr">
+      <c r="B318" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C318" s="2" t="inlineStr">
+      <c r="C318" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D318" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E318" s="2" t="inlineStr">
+      <c r="D318" t="n">
+        <v>1</v>
+      </c>
+      <c r="E318" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F318" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G318" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H318" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I318" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J318" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K318" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L318" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G318" t="b">
+        <v>1</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I318" t="b">
+        <v>1</v>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K318" t="b">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="2" t="n">
+      <c r="A319" t="n">
         <v>26</v>
       </c>
-      <c r="B319" s="2" t="inlineStr">
+      <c r="B319" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C319" s="2" t="inlineStr">
+      <c r="C319" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="D319" s="2" t="n">
+      <c r="D319" t="n">
         <v>2</v>
       </c>
-      <c r="E319" s="2" t="inlineStr">
+      <c r="E319" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F319" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G319" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H319" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I319" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J319" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K319" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L319" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G319" t="b">
+        <v>1</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I319" t="b">
+        <v>1</v>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K319" t="b">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="F331" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G331" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="L331" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -25017,7 +25017,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G473" t="b">
@@ -25041,57 +25041,57 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="n">
+      <c r="A474" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B474" t="inlineStr">
+      <c r="B474" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr">
+      <c r="C474" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D474" t="n">
+      <c r="D474" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E474" t="inlineStr">
+      <c r="E474" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F474" t="inlineStr">
+      <c r="F474" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G474" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I474" t="b">
-        <v>1</v>
-      </c>
-      <c r="J474" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K474" t="b">
-        <v>1</v>
-      </c>
-      <c r="L474" t="inlineStr">
+      <c r="G474" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J474" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L474" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25485,7 +25485,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G482" t="b">
@@ -25509,7 +25509,7 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>False_I-Event</t>
         </is>
       </c>
     </row>
